--- a/LectureSpring2019 copy 2.xlsx
+++ b/LectureSpring2019 copy 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB9135-E6F1-9941-A3B4-B74D84B9803B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED8ACE-704B-674A-A8D5-C7AD4EC50EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Lectures" localSheetId="0">Sheet1!$A$1:$F$52</definedName>
+    <definedName name="Lectures" localSheetId="0">Sheet1!$A$1:$E$52</definedName>
     <definedName name="Lectures" localSheetId="1">'Sheet1 (2)'!$A$1:$E$50</definedName>
     <definedName name="Lectures" localSheetId="2">'Sheet1 (3)'!$A$1:$F$50</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="178">
   <si>
     <t>Week</t>
   </si>
@@ -489,30 +489,12 @@
     <t>Flex</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
     <t>Project</t>
   </si>
   <si>
-    <t>General and Generalized Linear Model</t>
-  </si>
-  <si>
-    <t>Generating Reports and Web Apps</t>
-  </si>
-  <si>
-    <t>Web Scraping and APIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Language Processing </t>
-  </si>
-  <si>
-    <t>Structural Equation Programming</t>
-  </si>
-  <si>
     <t>[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r)</t>
   </si>
   <si>
@@ -534,78 +516,9 @@
     <t>[Learning Statistics with R](https://psyr.djnavarro.net/probability.html)</t>
   </si>
   <si>
-    <t>[Quick-R ANOVA Guide](https://www.statmethods.net/stats/anova.html)</t>
-  </si>
-  <si>
-    <t>Factorial ANOVA</t>
-  </si>
-  <si>
-    <t>[Factorial ANOVA Guide](http://personality-project.org/r/r.guide/r.anova.html)</t>
-  </si>
-  <si>
-    <t>[One-Way ANOVA](https://learningstatisticswithr.com/book/anova.html)</t>
-  </si>
-  <si>
-    <t>[Factorial ANOVA](https://learningstatisticswithr.com/book/anova2.html)</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>[DataCamp 8](https://www.datacamp.com/courses/analysis-of-variance-anova)</t>
-  </si>
-  <si>
-    <t>[DataCamp 9](https://www.datacamp.com/courses/repeated-measures-anova)</t>
-  </si>
-  <si>
-    <t>[Linear Modeling](https://www.theanalysisfactor.com/why-anova-and-linear-regression-are-the-same-analysis/)</t>
-  </si>
-  <si>
     <t>[Lienar Regression](hhttps://learningstatisticswithr.com/book/regression.html)</t>
   </si>
   <si>
-    <t>[R Notebooks](http://minimaxir.com/2017/06/r-notebooks/)</t>
-  </si>
-  <si>
-    <t>[Intro R Markdown](https://r4ds.had.co.nz/r-markdown.html)</t>
-  </si>
-  <si>
-    <t>[DataCamp 11](https://www.datacamp.com/courses/communicating-with-data-in-the-tidyverse)</t>
-  </si>
-  <si>
-    <t>[Web Scraping](http://neoacademic.com/2016/06/15/collecting-unstructured-data-internet-guide-psychologists/)</t>
-  </si>
-  <si>
-    <t>[Web Scraping advanced](https://rafalab.github.io/dsbook/web-scraping.html)</t>
-  </si>
-  <si>
-    <t>[DataCamp 12](https://www.datacamp.com/courses/working-with-web-data-in-r)</t>
-  </si>
-  <si>
-    <t>[Machine Learning Intro](https://www.kdnuggets.com/2016/11/machine-learning-vs-statistics.html)</t>
-  </si>
-  <si>
-    <t>[Machine Learning Intermediate](https://rafalab.github.io/dsbook/introduction-to-machine-learning.html)</t>
-  </si>
-  <si>
-    <t>[NLP Intro](https://iksinc.wordpress.com/2015/04/13/words-as-vectors/)</t>
-  </si>
-  <si>
-    <t>[Text Mining Intro](https://www.tidytextmining.com/)</t>
-  </si>
-  <si>
-    <t>[DataCamp 15](https://learn.datacamp.com/courses/structural-equation-modeling-with-lavaan-in-r)</t>
-  </si>
-  <si>
-    <t>[SEM](https://lavaan.ugent.be/tutorial/sem.html)</t>
-  </si>
-  <si>
-    <t>[SEM Intro](https://bookdown.org/MathiasHarrer/Doing_Meta_Analysis_in_R/sem.html)</t>
-  </si>
-  <si>
-    <t>[Tweets across the United States ](https://learn.datacamp.com/projects/511)</t>
-  </si>
-  <si>
     <t>[Visualizing COVID-19](https://learn.datacamp.com/projects/870)</t>
   </si>
   <si>
@@ -618,75 +531,30 @@
     <t>[DataCamp 6a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [DataCamp 6b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
   </si>
   <si>
-    <t>[DataCamp 10a](https://www.datacamp.com/courses/correlation-and-regression) [DataCamp 10b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
-  </si>
-  <si>
-    <t>[DataCamp 14a](https://www.datacamp.com/courses/intro-to-text-mining-bag-of-words) [DataCamp 14b](https://learn.datacamp.com/courses/introduction-to-text-analysis-in-r) [DataCamp 14c](https://learn.datacamp.com/courses/introduction-to-natural-language-processing-in-r) [DataCamp14d ](https://www.datacamp.com/courses/sentiment-analysis-in-r-the-tidy-way)</t>
-  </si>
-  <si>
     <t>DataCamp Courses</t>
   </si>
   <si>
     <t>[Trends in Maryland Crime Rates](https://learn.datacamp.com/projects/673)</t>
   </si>
   <si>
-    <t>[South Park Text Analysis ](https://learn.datacamp.com/projects/561)</t>
-  </si>
-  <si>
     <t>[Visualizing Musical Data](https://learn.datacamp.com/projects/78)</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine Learning </t>
-  </si>
-  <si>
-    <t>[DataCamp 13a](https://www.datacamp.com/courses/machine-learning-toolbox)[DataCamp 13b](https://learn.datacamp.com/courses/supervised-learning-in-r-classification)</t>
-  </si>
-  <si>
-    <t>[Text Mining America's Toughest Game Show](https://learn.datacamp.com/projects/796)</t>
-  </si>
-  <si>
     <t>[Phyllotaxis: Draw Flowers Using Mathematics](https://learn.datacamp.com/projects/62)</t>
   </si>
   <si>
-    <t>[Data Science for Social Good: Crime Study](https://learn.datacamp.com/projects/614)</t>
-  </si>
-  <si>
-    <t>[A Visual History of Nobel Prize Winners](https://learn.datacamp.com/projects/309)</t>
-  </si>
-  <si>
-    <t>[Gender Bias in Graduate Admissions](https://learn.datacamp.com/projects/567)</t>
-  </si>
-  <si>
     <t>Reading 2</t>
   </si>
   <si>
     <t>Reading 1</t>
   </si>
   <si>
-    <t>[Predict Taxi Fares with Random Walks](https://learn.datacamp.com/projects/496)</t>
-  </si>
-  <si>
-    <t>Data Science: R Basics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Science: Introduction &amp; Software </t>
-  </si>
-  <si>
-    <t>Data Science: Data Visualizations</t>
-  </si>
-  <si>
     <t>[Visualization](https://rafalab.github.io/dsbook/introduction-to-data-visualization.html)</t>
   </si>
   <si>
-    <t>Data Science: Probability</t>
-  </si>
-  <si>
     <t>[Probability](https://rafalab.github.io/dsbook/introduction-to-statistics-with-r.html)</t>
   </si>
   <si>
-    <t>Data Science: Inference &amp; Modeling</t>
-  </si>
-  <si>
     <t>[Statistical Inference](https://rafalab.github.io/dsbook/inference.html)</t>
   </si>
   <si>
@@ -699,31 +567,46 @@
     <t>[DataCamp 4a](https://learn.datacamp.com/courses/foundations-of-inference-in-r) [DataCamp 7b](https://learn.datacamp.com/skill-tracks/statistical-inference-with-r)</t>
   </si>
   <si>
-    <t>Data Science: Productivity Tools</t>
-  </si>
-  <si>
     <t>[Productivity Tools](https://rafalab.github.io/dsbook/introduction-to-productivity-tools.html)</t>
   </si>
   <si>
-    <t>Data Science: Wrangling</t>
-  </si>
-  <si>
     <t>[Data Wrangling](https://rafalab.github.io/dsbook/introduction-to-data-wrangling.html)</t>
   </si>
   <si>
-    <t>Data Science: Linear Regression</t>
-  </si>
-  <si>
     <t>[DataCamp 7a](https://www.datacamp.com/courses/correlation-and-regression) [DataCamp 7b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
   </si>
   <si>
-    <t>Data Science: Machine Learning</t>
-  </si>
-  <si>
     <t>[Regression](https://rafalab.github.io/dsbook/regression.html)</t>
   </si>
   <si>
     <t>[Machine Learning](https://rafalab.github.io/dsbook/introduction-to-machine-learning.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Data Science: Introduction &amp; Software </t>
+  </si>
+  <si>
+    <t>2. Data Science: R Basics</t>
+  </si>
+  <si>
+    <t>3. Data Science: Data Visualizations</t>
+  </si>
+  <si>
+    <t>4. Data Science: Probability</t>
+  </si>
+  <si>
+    <t>5. Data Science: Inference &amp; Modeling</t>
+  </si>
+  <si>
+    <t>6. Data Science: Productivity Tools</t>
+  </si>
+  <si>
+    <t>7 .Data Science: Wrangling</t>
+  </si>
+  <si>
+    <t>8. Data Science: Linear Regression</t>
+  </si>
+  <si>
+    <t>9. Data Science: Machine Learning</t>
   </si>
 </sst>
 </file>
@@ -775,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -788,12 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1094,436 +971,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>198</v>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>141</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>199</v>
+        <v>142</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
+        <v>148</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>203</v>
+        <v>155</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>208</v>
+        <v>149</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>210</v>
+        <v>154</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G31" s="1"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="1"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="1"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D43"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G46" s="1"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G49" s="1"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" display="https://learn.datacamp.com/projects/673" xr:uid="{D338DF12-88CA-E64D-A19E-020F7332BB48}"/>
-    <hyperlink ref="F9" r:id="rId2" display="https://learn.datacamp.com/projects/673" xr:uid="{7468567E-328F-764A-ADDF-B77DFFB21F33}"/>
+    <hyperlink ref="E9" r:id="rId1" display="https://learn.datacamp.com/projects/673" xr:uid="{7468567E-328F-764A-ADDF-B77DFFB21F33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LectureSpring2019 copy 2.xlsx
+++ b/LectureSpring2019 copy 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED8ACE-704B-674A-A8D5-C7AD4EC50EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72294827-8CD5-6748-8D17-2C8E6050100E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -672,11 +672,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,261 +986,259 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="9"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F31" s="1"/>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="9"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="1"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="1"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C40"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C41"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C43"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F46" s="1"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="1"/>
+      <c r="F49" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/LectureSpring2019 copy 2.xlsx
+++ b/LectureSpring2019 copy 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72294827-8CD5-6748-8D17-2C8E6050100E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F1B80E-1579-404F-8481-32C15525406B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="186">
   <si>
     <t>Week</t>
   </si>
@@ -495,60 +495,12 @@
     <t>Project</t>
   </si>
   <si>
-    <t>[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r)</t>
-  </si>
-  <si>
-    <t>[Introduction](https://r4ds.had.co.nz/introduction.html)</t>
-  </si>
-  <si>
     <t>[R basics](https://rafalab.github.io/dsbook/r-basics.html)</t>
   </si>
   <si>
     <t>[Getting started with R](https://rafalab.github.io/dsbook/getting-started.html)</t>
   </si>
   <si>
-    <t>[Strings](https://r4ds.had.co.nz/strings.html#tools)</t>
-  </si>
-  <si>
-    <t>[Data Visualization](https://r4ds.had.co.nz/data-visualisation.html)</t>
-  </si>
-  <si>
-    <t>[Learning Statistics with R](https://psyr.djnavarro.net/probability.html)</t>
-  </si>
-  <si>
-    <t>[Lienar Regression](hhttps://learningstatisticswithr.com/book/regression.html)</t>
-  </si>
-  <si>
-    <t>[Visualizing COVID-19](https://learn.datacamp.com/projects/870)</t>
-  </si>
-  <si>
-    <t>[Leveling in Candy Crush Saga](https://learn.datacamp.com/projects/139)</t>
-  </si>
-  <si>
-    <t>[DataCamp 5](https://www.datacamp.com/courses/string-manipulation-in-r-with-stringr) [RegexOne](https://regexone.com/)</t>
-  </si>
-  <si>
-    <t>[DataCamp 6a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [DataCamp 6b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
-  </si>
-  <si>
-    <t>DataCamp Courses</t>
-  </si>
-  <si>
-    <t>[Trends in Maryland Crime Rates](https://learn.datacamp.com/projects/673)</t>
-  </si>
-  <si>
-    <t>[Visualizing Musical Data](https://learn.datacamp.com/projects/78)</t>
-  </si>
-  <si>
-    <t>[Phyllotaxis: Draw Flowers Using Mathematics](https://learn.datacamp.com/projects/62)</t>
-  </si>
-  <si>
-    <t>Reading 2</t>
-  </si>
-  <si>
-    <t>Reading 1</t>
-  </si>
-  <si>
     <t>[Visualization](https://rafalab.github.io/dsbook/introduction-to-data-visualization.html)</t>
   </si>
   <si>
@@ -558,24 +510,12 @@
     <t>[Statistical Inference](https://rafalab.github.io/dsbook/inference.html)</t>
   </si>
   <si>
-    <t>[Statistical Modeling](https://rafalab.github.io/dsbook/models.html)</t>
-  </si>
-  <si>
-    <t>[DataCamp 3a](https://learn.datacamp.com/courses/introduction-to-statistics-in-r) [DataCamp 3b](https://learn.datacamp.com/skill-tracks/probability-and-distribution-with-r)  [DataCamp 3d](https://learn.datacamp.com/skill-tracks/learn-statistics-with-r)</t>
-  </si>
-  <si>
-    <t>[DataCamp 4a](https://learn.datacamp.com/courses/foundations-of-inference-in-r) [DataCamp 7b](https://learn.datacamp.com/skill-tracks/statistical-inference-with-r)</t>
-  </si>
-  <si>
     <t>[Productivity Tools](https://rafalab.github.io/dsbook/introduction-to-productivity-tools.html)</t>
   </si>
   <si>
     <t>[Data Wrangling](https://rafalab.github.io/dsbook/introduction-to-data-wrangling.html)</t>
   </si>
   <si>
-    <t>[DataCamp 7a](https://www.datacamp.com/courses/correlation-and-regression) [DataCamp 7b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
-  </si>
-  <si>
     <t>[Regression](https://rafalab.github.io/dsbook/regression.html)</t>
   </si>
   <si>
@@ -607,13 +547,97 @@
   </si>
   <si>
     <t>9. Data Science: Machine Learning</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading </t>
+  </si>
+  <si>
+    <t>Video Lectures</t>
+  </si>
+  <si>
+    <t>[R basics](https://www.edx.org/course/data-science-r-basics)</t>
+  </si>
+  <si>
+    <t>[Visualization](https://www.edx.org/course/data-science-visualization)</t>
+  </si>
+  <si>
+    <t>[Probability](https://www.edx.org/course/data-science-probability)</t>
+  </si>
+  <si>
+    <t>[Statistical Inference](https://www.edx.org/course/data-science-inference-and-modeling)</t>
+  </si>
+  <si>
+    <t>[Productivity Tools](https://www.edx.org/course/data-science-productivity-tools)</t>
+  </si>
+  <si>
+    <t>[Data Wrangling](https://www.edx.org/course/data-science-wrangling)</t>
+  </si>
+  <si>
+    <t>[Regression](https://www.edx.org/course/data-science-linear-regression)</t>
+  </si>
+  <si>
+    <t>[Machine Learning](https://www.edx.org/course/data-science-machine-learning)</t>
+  </si>
+  <si>
+    <t>[DataCamp 2](https://www.datacamp.com/courses/intermediate-r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r) </t>
+  </si>
+  <si>
+    <t>[DataCamp 3a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [DataCamp 3b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DataCamp 4a](https://www.datacamp.com/courses/introduction-to-statistics-in-r) [DataCamp 4b](https://www.datacamp.com/courses/foundations-of-probability-in-r)  </t>
+  </si>
+  <si>
+    <t>[DataCamp 5a](https://www.datacamp.com/courses/foundations-of-inference-in-r) [DataCamp 5b](https://www.datacamp.com/courses/inference-for-linear-regression-in-r)</t>
+  </si>
+  <si>
+    <t>[DataCamp 8a](https://www.datacamp.com/courses/correlation-and-regression) [DataCamp 8b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DataCamp 7a](https://datacamp.com/courses/introduction-to-the-tidyverse) [DataCamp 7b](https://datacamp.com/skill-tracks/data-manipulation-with-r)[DataCamp 7c](https://datacamp.com/skill-tracks/text-mining-with-r)[DataCamp 7d](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
+  </si>
+  <si>
+    <t>[DataCamp 6a](https://datacamp.com/courses/reporting-with-rmarkdown) [DataCamp 6b](https://datacamp.com/courses/introduction-to-shell)</t>
+  </si>
+  <si>
+    <t>[DataCamp 8a](https://datacamp.com/skill-tracks/machine-learning-fundamentals)</t>
+  </si>
+  <si>
+    <t>DataCamp Practice</t>
+  </si>
+  <si>
+    <t>Available by semester start</t>
+  </si>
+  <si>
+    <t>[Trends in Maryland Crime Rates](https://datacamp.com/projects/673)</t>
+  </si>
+  <si>
+    <t>[PROJECT 1: Visualizing COVID-19](https://datacamp.com/projects/870)  [PROJECT 2: Phyllotaxis: Draw Flowers Using Mathematics](https://datacamp.com/projects/62)</t>
+  </si>
+  <si>
+    <t>[PROJECT 1: Kidney Stones and Simpson's Paradox](https://datacamp.com/projects/697)  [PROJECT 2: Health Survey Data Analysis of BMI](https://datacamp.com/projects/677)</t>
+  </si>
+  <si>
+    <t>[PROJECT 1: Leveling in Candy Crush Saga](https://datacamp.com/projects/139)  [PROJECT 2: Modeling the Volatility of US Bond Yields](https://datacamp.com/projects/738)</t>
+  </si>
+  <si>
+    <t>[PROJECT 1: Visualizing Musical Data](https://datacamp.com/projects/78)  [PROJECT 2: A Text Analysis of Trump's Tweets](https://datacamp.com/projects/511)  [PROJECT 3: Going Down to South Park: A Text Analysis](https://datacamp.com/projects/561)</t>
+  </si>
+  <si>
+    <t>[PROJECT 1: What Makes a Pokémon Legendary?](https://datacamp.com/projects/712)  [PROJECT 2: Predict Taxi Fares with Random Forests](https://datacamp.com/projects/496)  [PROJECT 3: The Impact of Climate Change on Birds](https://datacamp.com/projects/664)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,13 +649,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -658,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -673,9 +690,6 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -683,12 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -983,266 +991,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="35" style="7" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="5" customWidth="1"/>
+    <col min="2" max="3" width="35" style="6" customWidth="1"/>
+    <col min="4" max="5" width="42.6640625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="22.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F19" s="9"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="9"/>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="9"/>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F31" s="9"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="9"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="9"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C43" s="6"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F46" s="9"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" display="https://learn.datacamp.com/projects/673" xr:uid="{7468567E-328F-764A-ADDF-B77DFFB21F33}"/>
+    <hyperlink ref="F9" r:id="rId1" display="https://learn.datacamp.com/projects/673" xr:uid="{07BA06B6-8AE3-D94E-9D14-60E5CCC7C1A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LectureSpring2019 copy 2.xlsx
+++ b/LectureSpring2019 copy 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F1B80E-1579-404F-8481-32C15525406B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F36DE94-9384-6A4A-B691-40C33073D257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="196">
   <si>
     <t>Week</t>
   </si>
@@ -489,12 +489,6 @@
     <t>Flex</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
     <t>[R basics](https://rafalab.github.io/dsbook/r-basics.html)</t>
   </si>
   <si>
@@ -522,42 +516,6 @@
     <t>[Machine Learning](https://rafalab.github.io/dsbook/introduction-to-machine-learning.html)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Data Science: Introduction &amp; Software </t>
-  </si>
-  <si>
-    <t>2. Data Science: R Basics</t>
-  </si>
-  <si>
-    <t>3. Data Science: Data Visualizations</t>
-  </si>
-  <si>
-    <t>4. Data Science: Probability</t>
-  </si>
-  <si>
-    <t>5. Data Science: Inference &amp; Modeling</t>
-  </si>
-  <si>
-    <t>6. Data Science: Productivity Tools</t>
-  </si>
-  <si>
-    <t>7 .Data Science: Wrangling</t>
-  </si>
-  <si>
-    <t>8. Data Science: Linear Regression</t>
-  </si>
-  <si>
-    <t>9. Data Science: Machine Learning</t>
-  </si>
-  <si>
-    <t>Assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading </t>
-  </si>
-  <si>
-    <t>Video Lectures</t>
-  </si>
-  <si>
     <t>[R basics](https://www.edx.org/course/data-science-r-basics)</t>
   </si>
   <si>
@@ -588,49 +546,121 @@
     <t xml:space="preserve">[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r) </t>
   </si>
   <si>
-    <t>[DataCamp 3a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [DataCamp 3b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DataCamp 4a](https://www.datacamp.com/courses/introduction-to-statistics-in-r) [DataCamp 4b](https://www.datacamp.com/courses/foundations-of-probability-in-r)  </t>
-  </si>
-  <si>
-    <t>[DataCamp 5a](https://www.datacamp.com/courses/foundations-of-inference-in-r) [DataCamp 5b](https://www.datacamp.com/courses/inference-for-linear-regression-in-r)</t>
-  </si>
-  <si>
-    <t>[DataCamp 8a](https://www.datacamp.com/courses/correlation-and-regression) [DataCamp 8b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DataCamp 7a](https://datacamp.com/courses/introduction-to-the-tidyverse) [DataCamp 7b](https://datacamp.com/skill-tracks/data-manipulation-with-r)[DataCamp 7c](https://datacamp.com/skill-tracks/text-mining-with-r)[DataCamp 7d](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
-  </si>
-  <si>
-    <t>[DataCamp 6a](https://datacamp.com/courses/reporting-with-rmarkdown) [DataCamp 6b](https://datacamp.com/courses/introduction-to-shell)</t>
-  </si>
-  <si>
     <t>[DataCamp 8a](https://datacamp.com/skill-tracks/machine-learning-fundamentals)</t>
   </si>
   <si>
-    <t>DataCamp Practice</t>
-  </si>
-  <si>
     <t>Available by semester start</t>
   </si>
   <si>
-    <t>[Trends in Maryland Crime Rates](https://datacamp.com/projects/673)</t>
-  </si>
-  <si>
-    <t>[PROJECT 1: Visualizing COVID-19](https://datacamp.com/projects/870)  [PROJECT 2: Phyllotaxis: Draw Flowers Using Mathematics](https://datacamp.com/projects/62)</t>
-  </si>
-  <si>
-    <t>[PROJECT 1: Kidney Stones and Simpson's Paradox](https://datacamp.com/projects/697)  [PROJECT 2: Health Survey Data Analysis of BMI](https://datacamp.com/projects/677)</t>
-  </si>
-  <si>
-    <t>[PROJECT 1: Leveling in Candy Crush Saga](https://datacamp.com/projects/139)  [PROJECT 2: Modeling the Volatility of US Bond Yields](https://datacamp.com/projects/738)</t>
-  </si>
-  <si>
-    <t>[PROJECT 1: Visualizing Musical Data](https://datacamp.com/projects/78)  [PROJECT 2: A Text Analysis of Trump's Tweets](https://datacamp.com/projects/511)  [PROJECT 3: Going Down to South Park: A Text Analysis](https://datacamp.com/projects/561)</t>
-  </si>
-  <si>
-    <t>[PROJECT 1: What Makes a Pokémon Legendary?](https://datacamp.com/projects/712)  [PROJECT 2: Predict Taxi Fares with Random Forests](https://datacamp.com/projects/496)  [PROJECT 3: The Impact of Climate Change on Birds](https://datacamp.com/projects/664)</t>
+    <t xml:space="preserve">Introduction &amp; Software </t>
+  </si>
+  <si>
+    <t>R Basics</t>
+  </si>
+  <si>
+    <t>Data Visualizations</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Inference &amp; Modeling</t>
+  </si>
+  <si>
+    <t>Productivity Tools</t>
+  </si>
+  <si>
+    <t>Wrangling</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** Visualizing COVID-19](https://datacamp.com/projects/870)  [&lt;br&gt;**PROJECT 2:** Phyllotaxis: Draw Flowers Using Mathematics](https://datacamp.com/projects/62)</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** Kidney Stones and Simpson's Paradox](https://datacamp.com/projects/697)  [&lt;br&gt;**PROJECT 2:** Health Survey Data Analysis of BMI](https://datacamp.com/projects/677)</t>
+  </si>
+  <si>
+    <t>[DataCamp 3a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [&lt;br&gt;DataCamp 3b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DataCamp 4a](https://www.datacamp.com/courses/introduction-to-statistics-in-r) [&lt;br&gt;DataCamp 4b](https://www.datacamp.com/courses/foundations-of-probability-in-r)  </t>
+  </si>
+  <si>
+    <t>[DataCamp 5a](https://www.datacamp.com/courses/foundations-of-inference-in-r) [&lt;br&gt;DataCamp 5b](https://www.datacamp.com/courses/inference-for-linear-regression-in-r)</t>
+  </si>
+  <si>
+    <t>[DataCamp 6a](https://datacamp.com/courses/reporting-with-rmarkdown) [&lt;br&gt;DataCamp 6b](https://datacamp.com/courses/introduction-to-shell)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DataCamp 7a](https://datacamp.com/courses/introduction-to-the-tidyverse) [&lt;br&gt;DataCamp 7b](https://datacamp.com/skill-tracks/data-manipulation-with-r)[&lt;br&gt;DataCamp 7c](https://datacamp.com/skill-tracks/text-mining-with-r)[&lt;br&gt;DataCamp 7d](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
+  </si>
+  <si>
+    <t>[DataCamp 8a](https://www.datacamp.com/courses/correlation-and-regression) [&lt;br&gt;DataCamp 8b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** What Makes a Pokémon Legendary?](https://datacamp.com/projects/712)  [&lt;br&gt;**PROJECT 2:** Predict Taxi Fares with Random Forests](https://datacamp.com/projects/496)  [&lt;br&gt;**PROJECT 3:** The Impact of Climate Change on Birds](https://datacamp.com/projects/664)</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** Visualizing Musical Data](https://datacamp.com/projects/78)  [&lt;br&gt;**PROJECT 2:** A Text Analysis of Trump's Tweets](https://datacamp.com/projects/511)  [&lt;br&gt;**PROJECT 3:** Going Down to South Park: A Text Analysis](https://datacamp.com/projects/561)</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** Leveling in Candy Crush Saga](https://datacamp.com/projects/139)  [&lt;br&gt;**PROJECT 2:** Modeling the Volatility of US Bond Yields](https://datacamp.com/projects/738)</t>
+  </si>
+  <si>
+    <t>[**Project:** Trends in Maryland Crime Rates](https://datacamp.com/projects/673)</t>
+  </si>
+  <si>
+    <t>DataCamp Project</t>
+  </si>
+  <si>
+    <t>**Module**</t>
+  </si>
+  <si>
+    <t>**Topic**</t>
+  </si>
+  <si>
+    <t>**DSbook Chapter**</t>
+  </si>
+  <si>
+    <t>**edX Video Lectures**</t>
+  </si>
+  <si>
+    <t>**Assessment**</t>
+  </si>
+  <si>
+    <t>**DataCamp Practice**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**1.** </t>
+  </si>
+  <si>
+    <t>**2.**</t>
+  </si>
+  <si>
+    <t>**3.**</t>
+  </si>
+  <si>
+    <t>**4.**</t>
+  </si>
+  <si>
+    <t>**5.**</t>
+  </si>
+  <si>
+    <t>**6.**</t>
+  </si>
+  <si>
+    <t>**7.**</t>
+  </si>
+  <si>
+    <t>**8.**</t>
+  </si>
+  <si>
+    <t>**9.**</t>
   </si>
 </sst>
 </file>
@@ -675,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -697,6 +727,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -993,252 +1032,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="5" customWidth="1"/>
-    <col min="2" max="3" width="35" style="6" customWidth="1"/>
-    <col min="4" max="5" width="42.6640625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="22.83203125" style="5" customWidth="1"/>
+    <col min="1" max="2" width="31.5" style="5" customWidth="1"/>
+    <col min="3" max="4" width="35" style="6" customWidth="1"/>
+    <col min="5" max="6" width="42.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="41.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="D3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="238" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="E10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="6"/>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="6"/>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="6"/>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
@@ -1255,7 +1308,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://learn.datacamp.com/projects/673" xr:uid="{07BA06B6-8AE3-D94E-9D14-60E5CCC7C1A8}"/>
+    <hyperlink ref="G9" r:id="rId1" display="https://learn.datacamp.com/projects/673" xr:uid="{4386C830-A1C2-C845-8353-B92F41EB6111}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LectureSpring2019 copy 2.xlsx
+++ b/LectureSpring2019 copy 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F36DE94-9384-6A4A-B691-40C33073D257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705CFE6D-87A6-D148-B1B3-56570C83FF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,15 +540,6 @@
     <t>[Machine Learning](https://www.edx.org/course/data-science-machine-learning)</t>
   </si>
   <si>
-    <t>[DataCamp 2](https://www.datacamp.com/courses/intermediate-r)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r) </t>
-  </si>
-  <si>
-    <t>[DataCamp 8a](https://datacamp.com/skill-tracks/machine-learning-fundamentals)</t>
-  </si>
-  <si>
     <t>Available by semester start</t>
   </si>
   <si>
@@ -585,24 +576,6 @@
     <t>[**PROJECT 1:** Kidney Stones and Simpson's Paradox](https://datacamp.com/projects/697)  [&lt;br&gt;**PROJECT 2:** Health Survey Data Analysis of BMI](https://datacamp.com/projects/677)</t>
   </si>
   <si>
-    <t>[DataCamp 3a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [&lt;br&gt;DataCamp 3b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DataCamp 4a](https://www.datacamp.com/courses/introduction-to-statistics-in-r) [&lt;br&gt;DataCamp 4b](https://www.datacamp.com/courses/foundations-of-probability-in-r)  </t>
-  </si>
-  <si>
-    <t>[DataCamp 5a](https://www.datacamp.com/courses/foundations-of-inference-in-r) [&lt;br&gt;DataCamp 5b](https://www.datacamp.com/courses/inference-for-linear-regression-in-r)</t>
-  </si>
-  <si>
-    <t>[DataCamp 6a](https://datacamp.com/courses/reporting-with-rmarkdown) [&lt;br&gt;DataCamp 6b](https://datacamp.com/courses/introduction-to-shell)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DataCamp 7a](https://datacamp.com/courses/introduction-to-the-tidyverse) [&lt;br&gt;DataCamp 7b](https://datacamp.com/skill-tracks/data-manipulation-with-r)[&lt;br&gt;DataCamp 7c](https://datacamp.com/skill-tracks/text-mining-with-r)[&lt;br&gt;DataCamp 7d](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
-  </si>
-  <si>
-    <t>[DataCamp 8a](https://www.datacamp.com/courses/correlation-and-regression) [&lt;br&gt;DataCamp 8b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
-  </si>
-  <si>
     <t>[**PROJECT 1:** What Makes a Pokémon Legendary?](https://datacamp.com/projects/712)  [&lt;br&gt;**PROJECT 2:** Predict Taxi Fares with Random Forests](https://datacamp.com/projects/496)  [&lt;br&gt;**PROJECT 3:** The Impact of Climate Change on Birds](https://datacamp.com/projects/664)</t>
   </si>
   <si>
@@ -661,6 +634,33 @@
   </si>
   <si>
     <t>**9.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[**DataCamp 1:** Introduction to R](https://www.datacamp.com/courses/free-introduction-to-r) </t>
+  </si>
+  <si>
+    <t>[**DataCamp 2:** Intermediate R](https://www.datacamp.com/courses/intermediate-r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[**DataCamp 4a:** Intro to statistics with R](https://www.datacamp.com/courses/introduction-to-statistics-in-r) [&lt;br&gt;**DataCamp 4b:** Foundations of probability](https://www.datacamp.com/courses/foundations-of-probability-in-r)  </t>
+  </si>
+  <si>
+    <t>[**DataCamp 6a:** Reporting with R Markdown](https://datacamp.com/courses/reporting-with-rmarkdown) [&lt;br&gt;**DataCamp 6b:** Introduction to Shell/UNIX](https://datacamp.com/courses/introduction-to-shell)</t>
+  </si>
+  <si>
+    <t>[**DataCamp 9:** Machine learning fundamentals](https://datacamp.com/skill-tracks/machine-learning-fundamentals)</t>
+  </si>
+  <si>
+    <t>[**DataCamp 5a:** Foundations of inference](https://www.datacamp.com/courses/foundations-of-inference-in-r) [&lt;br&gt;**DataCamp 5b:** Inference linear regression](https://www.datacamp.com/courses/inference-for-linear-regression-in-r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[**DataCamp 7a:** Introduction to tidyverse](https://datacamp.com/courses/introduction-to-the-tidyverse) [&lt;br&gt;**DataCamp 7b:** Data manipulation with R](https://datacamp.com/skill-tracks/data-manipulation-with-r)[&lt;br&gt;**DataCamp 7c:** Text mining with R ](https://datacamp.com/skill-tracks/text-mining-with-r)[&lt;br&gt;**DataCamp 7d:** Working with dates &amp; times](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
+  </si>
+  <si>
+    <t>[**DataCamp 3a:** Intro DataViz ggplot2](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [&lt;br&gt;**DataCamp 3b:** Intermed. DataViz  ggplot2](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
+  </si>
+  <si>
+    <t>[**DataCamp 8a:** Correlation and Regression](https://www.datacamp.com/courses/correlation-and-regression) [&lt;br&gt;**DataCamp 8b:** Multiple &amp; logistic regression](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,33 +1047,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>139</v>
@@ -1082,20 +1082,20 @@
         <v>139</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>138</v>
@@ -1104,19 +1104,19 @@
         <v>147</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>140</v>
@@ -1125,21 +1125,21 @@
         <v>148</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>141</v>
@@ -1148,21 +1148,21 @@
         <v>149</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>142</v>
@@ -1171,21 +1171,21 @@
         <v>150</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>143</v>
@@ -1194,19 +1194,19 @@
         <v>151</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>144</v>
@@ -1215,21 +1215,21 @@
         <v>152</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>145</v>
@@ -1238,21 +1238,21 @@
         <v>153</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>146</v>
@@ -1261,13 +1261,13 @@
         <v>154</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">

--- a/LectureSpring2019 copy 2.xlsx
+++ b/LectureSpring2019 copy 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705CFE6D-87A6-D148-B1B3-56570C83FF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E2C83-BA7E-7641-A2FE-4714117F1621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="197">
   <si>
     <t>Week</t>
   </si>
@@ -516,30 +516,6 @@
     <t>[Machine Learning](https://rafalab.github.io/dsbook/introduction-to-machine-learning.html)</t>
   </si>
   <si>
-    <t>[R basics](https://www.edx.org/course/data-science-r-basics)</t>
-  </si>
-  <si>
-    <t>[Visualization](https://www.edx.org/course/data-science-visualization)</t>
-  </si>
-  <si>
-    <t>[Probability](https://www.edx.org/course/data-science-probability)</t>
-  </si>
-  <si>
-    <t>[Statistical Inference](https://www.edx.org/course/data-science-inference-and-modeling)</t>
-  </si>
-  <si>
-    <t>[Productivity Tools](https://www.edx.org/course/data-science-productivity-tools)</t>
-  </si>
-  <si>
-    <t>[Data Wrangling](https://www.edx.org/course/data-science-wrangling)</t>
-  </si>
-  <si>
-    <t>[Regression](https://www.edx.org/course/data-science-linear-regression)</t>
-  </si>
-  <si>
-    <t>[Machine Learning](https://www.edx.org/course/data-science-machine-learning)</t>
-  </si>
-  <si>
     <t>Available by semester start</t>
   </si>
   <si>
@@ -600,9 +576,6 @@
     <t>**DSbook Chapter**</t>
   </si>
   <si>
-    <t>**edX Video Lectures**</t>
-  </si>
-  <si>
     <t>**Assessment**</t>
   </si>
   <si>
@@ -661,6 +634,36 @@
   </si>
   <si>
     <t>[**DataCamp 8a:** Correlation and Regression](https://www.datacamp.com/courses/correlation-and-regression) [&lt;br&gt;**DataCamp 8b:** Multiple &amp; logistic regression](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
+  </si>
+  <si>
+    <t>**Video Lectures**</t>
+  </si>
+  <si>
+    <t>[Data Science 1](https://rafalab.github.io/dsbook/getting-started.html)</t>
+  </si>
+  <si>
+    <t>[Data Science 2](https://www.edx.org/course/data-science-r-basics)</t>
+  </si>
+  <si>
+    <t>[Data Science 3](https://www.edx.org/course/data-science-visualization)</t>
+  </si>
+  <si>
+    <t>[Data Science 4](https://www.edx.org/course/data-science-probability)</t>
+  </si>
+  <si>
+    <t>[Data Science 5](https://www.edx.org/course/data-science-inference-and-modeling)</t>
+  </si>
+  <si>
+    <t>[Data Science 6](https://www.edx.org/course/data-science-productivity-tools)</t>
+  </si>
+  <si>
+    <t>[Data Science 7](https://www.edx.org/course/data-science-wrangling)</t>
+  </si>
+  <si>
+    <t>[Data Science 8](https://www.edx.org/course/data-science-linear-regression)</t>
+  </si>
+  <si>
+    <t>[Data Science 9](https://www.edx.org/course/data-science-machine-learning)</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,227 +1050,227 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>145</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">

--- a/LectureSpring2019 copy 2.xlsx
+++ b/LectureSpring2019 copy 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BB00E-256F-294B-932D-D4B790DE5091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1EF892-22A4-724E-98E7-716474F1E9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
